--- a/Przypadkii_testowe_cz1.xlsx
+++ b/Przypadkii_testowe_cz1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CBC3CF7FC3F791D5/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maksymilian Leśniak\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1AEBC3F-4D1D-4830-823E-FB494981BF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D63B4-6EF1-4E96-A054-89CE296F0932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC4DDA05-4E0B-4A21-869A-CD557B368BCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BC4DDA05-4E0B-4A21-869A-CD557B368BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -295,6 +295,189 @@
   </si>
   <si>
     <t>DU_2_1</t>
+  </si>
+  <si>
+    <t>Użytkownik z danymi osobowymi</t>
+  </si>
+  <si>
+    <t>Użytkownik zostaje oznaczony jako "zapomniany, dane zmienione, dostęp odebrany</t>
+  </si>
+  <si>
+    <t>Komunikat o treści: "Dane zostały zapomniane"</t>
+  </si>
+  <si>
+    <t>DU_2_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Użytkownik do zapomnienia </t>
+  </si>
+  <si>
+    <t>Operacja anulowana, dane użytkownika pozostają niezmienione</t>
+  </si>
+  <si>
+    <t>DU_2_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Użytkownik oznaczony wcześniej  jako zapomniany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komunikat o treści: "Użytkownik jest już zapomniany </t>
+  </si>
+  <si>
+    <t>DU_2_4</t>
+  </si>
+  <si>
+    <t>Brak użytkownika do zapomnienia</t>
+  </si>
+  <si>
+    <t>System informuje że brak użytkowników do zapomnienia lub nie pokazuje żadnych rekordów</t>
+  </si>
+  <si>
+    <t>DU_2_5</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik bez uprawnień administratora</t>
+  </si>
+  <si>
+    <t>Brak dostępu do funkcji/ komunikat o braku uprawnień</t>
+  </si>
+  <si>
+    <t>DU_2_6</t>
+  </si>
+  <si>
+    <t>Sprawdzenie treści komunikatu po wykonaniu operacji zapomnienia</t>
+  </si>
+  <si>
+    <t>Komunikat o treści: użytkownik został zapomniany</t>
+  </si>
+  <si>
+    <t>Zapomnienie użytkownika</t>
+  </si>
+  <si>
+    <t>DU_2_7</t>
+  </si>
+  <si>
+    <t>Dane wrażliwe są zastąpione poprawnymi losowymi ciągami zgodnymi z walidacją</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprawdzenie czy po zapomnieniu spełniają się reguły walidacji </t>
+  </si>
+  <si>
+    <t>DU_2_8</t>
+  </si>
+  <si>
+    <t>Zapomnienie wielu użytkowników z rzędu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Każdy z użytkowników zostaje poprawnie zapomniany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DU_2_9 </t>
+  </si>
+  <si>
+    <t>Próba zalogowania zapomnianego użytkownika</t>
+  </si>
+  <si>
+    <t>System odrzuca próbę zalogowania</t>
+  </si>
+  <si>
+    <t>DU_2_10</t>
+  </si>
+  <si>
+    <t>Weryfikacja usunięcia uprawnień</t>
+  </si>
+  <si>
+    <t>Brak możliwości przypisania ról/ brak dostępności do jakichkolwiek funkcji systemu</t>
+  </si>
+  <si>
+    <t>Pokazanie komunikatu o zapomnieniu użytkownika</t>
+  </si>
+  <si>
+    <t>DU_1_18</t>
+  </si>
+  <si>
+    <t>Imię: brak, Nazwisko:Polak,Miejscowość: Dębica,Kod pocztowy: 58-783,ulica: Piotra Skargi,Numer posesji:31, Nr lokalu: Brak,Pesel:28021228775,Data urodzenia: 12.02.1928,Płeć:M,Adres e-mail: tester@testerzy.pl,Nr telefonu:505606707,Rola:User</t>
+  </si>
+  <si>
+    <t>Brak możliwości dodania użytkownika bez imienia do bazy danych</t>
+  </si>
+  <si>
+    <t>DU_1_19</t>
+  </si>
+  <si>
+    <t>Imię:Bruno, Nazwisko: brak,Miejscowość: Dębica,Kod pocztowy: 58-783,ulica: Piotra Skargi,Numer posesji:31, Nr lokalu: Brak,Pesel:28021228775,Data urodzenia: 12.02.1928,Płeć:M,Adres e-mail: tester@testerzy.pl,Nr telefonu:505606707,Rola:User</t>
+  </si>
+  <si>
+    <t>Brak możliwości dodania użytkownika bez nazwiska do bazy danych</t>
+  </si>
+  <si>
+    <t>DU_1_20</t>
+  </si>
+  <si>
+    <t>Imię: brak, Nazwisko: brak,Miejscowość: Dębica,Kod pocztowy: 58-783,ulica: Piotra Skargi,Numer posesji:31, Nr lokalu: Brak,Pesel:28021228775,Data urodzenia: 12.02.1928,Płeć:M,Adres e-mail: tester@testerzy.pl,Nr telefonu:505606707,Rola:User</t>
+  </si>
+  <si>
+    <t>Brak możliwości dodania użytkownika bez imienia oraz nazwiska do bazy danych</t>
+  </si>
+  <si>
+    <t>Komunikat o treści: "Błędne dane"</t>
+  </si>
+  <si>
+    <t>DU_3</t>
+  </si>
+  <si>
+    <t>Przegląd dodanych użytkowników</t>
+  </si>
+  <si>
+    <t>Sprawdzenie funkcjonalności przeglądu dodanych użytkowników</t>
+  </si>
+  <si>
+    <t>DU_3_1</t>
+  </si>
+  <si>
+    <t>Fragment nazwiska</t>
+  </si>
+  <si>
+    <t>Na liście widoczni są tylko użytkownicy o statusie "aktywny"</t>
+  </si>
+  <si>
+    <t>DU_3_2</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy system poprawnie wyświetla listę aktywnych użytkowników</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie aktywnego użytkownika po nazwisku</t>
+  </si>
+  <si>
+    <t>Edycja danych w profilu</t>
+  </si>
+  <si>
+    <t>Po edycji status użytkownika pozostaje nadal "aktywny"</t>
+  </si>
+  <si>
+    <t>DU_3_3</t>
+  </si>
+  <si>
+    <t>Brak aktywnych użytkowników</t>
+  </si>
+  <si>
+    <t>System wyświetla informację "Brak aktywnych użytkowników</t>
+  </si>
+  <si>
+    <t>Sprawdzenie reakcji systemu, gdy występuje brak aktywnych użytkowników</t>
+  </si>
+  <si>
+    <t>DU_3_4</t>
+  </si>
+  <si>
+    <t>Dostęp do edycji przez osobę bez uprawnień</t>
+  </si>
+  <si>
+    <t>Brak przycisku edytuj lub komunikat "brak uprawnień"</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy użytkownik bez odpowiednich ról może wprowadzać zmiany w profilu aktywnego użytkownika</t>
   </si>
 </sst>
 </file>
@@ -683,24 +866,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A2684A-317B-4FD9-B034-D655B6DFD519}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="76" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="76" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
-    <col min="11" max="11" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="48.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -734,8 +920,22 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -769,8 +969,22 @@
       <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
@@ -783,8 +997,22 @@
       <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
@@ -797,8 +1025,22 @@
       <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
@@ -811,8 +1053,22 @@
       <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
@@ -825,8 +1081,22 @@
       <c r="K6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="3" t="s">
         <v>34</v>
       </c>
@@ -839,8 +1109,22 @@
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
@@ -853,8 +1137,22 @@
       <c r="K8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="3" t="s">
         <v>40</v>
       </c>
@@ -867,8 +1165,22 @@
       <c r="K9" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="3" t="s">
         <v>41</v>
       </c>
@@ -881,8 +1193,22 @@
       <c r="K10" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="3" t="s">
         <v>44</v>
       </c>
@@ -895,8 +1221,22 @@
       <c r="K11" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="3" t="s">
         <v>47</v>
       </c>
@@ -909,8 +1249,22 @@
       <c r="K12" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="3" t="s">
         <v>48</v>
       </c>
@@ -923,8 +1277,22 @@
       <c r="K13" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="3" t="s">
         <v>49</v>
       </c>
@@ -937,8 +1305,22 @@
       <c r="K14" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="3" t="s">
         <v>50</v>
       </c>
@@ -951,8 +1333,22 @@
       <c r="K15" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="3" t="s">
         <v>51</v>
       </c>
@@ -965,8 +1361,22 @@
       <c r="K16" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H17" s="3" t="s">
         <v>52</v>
       </c>
@@ -976,8 +1386,22 @@
       <c r="K17" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="3" t="s">
         <v>53</v>
       </c>
@@ -990,32 +1414,872 @@
       <c r="K18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="8:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="8:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="8:25" ht="90" x14ac:dyDescent="0.25">
+      <c r="H35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+    </row>
+    <row r="50" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+    </row>
+    <row r="51" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+    </row>
+    <row r="52" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+    </row>
+    <row r="53" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+    </row>
+    <row r="55" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+    </row>
+    <row r="56" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+    </row>
+    <row r="57" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
